--- a/reading/ReadingItems.xlsx
+++ b/reading/ReadingItems.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/DAACS-Deployment/assessments/reading/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/Projects/DAACS-Github/DAACS-Website/assessments/reading/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="15320" yWindow="9320" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ReadingItems" sheetId="1" r:id="rId1"/>
@@ -3381,10 +3381,10 @@
   <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="K95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J122" sqref="J122"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/reading/ReadingItems.xlsx
+++ b/reading/ReadingItems.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="9320" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="17940" yWindow="6880" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ReadingItems" sheetId="1" r:id="rId1"/>
@@ -352,9 +352,6 @@
     <t>accessibility</t>
   </si>
   <si>
-    <t>The inclusion of handcycling in the 2004 Paralympcs demonstrates its</t>
-  </si>
-  <si>
     <t>profitability</t>
   </si>
   <si>
@@ -2996,6 +2993,9 @@
   </si>
   <si>
     <t>The author "felt a proud sense of fraternity" (line 31) with the "NASA explorers" (line 31) because they both</t>
+  </si>
+  <si>
+    <t>The inclusion of handcycling in the 2004 Paralympics demonstrates its</t>
   </si>
 </sst>
 </file>
@@ -3384,7 +3384,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3416,10 +3416,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>975</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>976</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>0</v>
@@ -3428,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
@@ -3465,13 +3465,13 @@
         <v>67</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>882</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>883</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>68</v>
@@ -3505,10 +3505,10 @@
         <v>67</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>884</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>885</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>73</v>
@@ -3545,10 +3545,10 @@
         <v>67</v>
       </c>
       <c r="H4" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>886</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>887</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>78</v>
@@ -3585,10 +3585,10 @@
         <v>67</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>83</v>
@@ -3625,10 +3625,10 @@
         <v>67</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>88</v>
@@ -3665,10 +3665,10 @@
         <v>67</v>
       </c>
       <c r="H7" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>890</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>891</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>93</v>
@@ -3705,10 +3705,10 @@
         <v>98</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>99</v>
@@ -3745,25 +3745,25 @@
         <v>98</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3785,25 +3785,25 @@
         <v>98</v>
       </c>
       <c r="H10" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>895</v>
-      </c>
       <c r="J10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3825,25 +3825,25 @@
         <v>98</v>
       </c>
       <c r="H11" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>887</v>
-      </c>
       <c r="J11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -3865,25 +3865,25 @@
         <v>98</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -3905,25 +3905,25 @@
         <v>98</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="M13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -3931,7 +3931,7 @@
         <v>2011</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>25</v>
@@ -3946,28 +3946,28 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>884</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>898</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -3975,7 +3975,7 @@
         <v>2011</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>30</v>
@@ -3990,28 +3990,28 @@
         <v>0.59</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -4019,7 +4019,7 @@
         <v>2011</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>14</v>
@@ -4034,28 +4034,28 @@
         <v>0.46</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -4063,7 +4063,7 @@
         <v>2011</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>25</v>
@@ -4078,28 +4078,28 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -4107,7 +4107,7 @@
         <v>2011</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>19</v>
@@ -4122,28 +4122,28 @@
         <v>0.5</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -4151,7 +4151,7 @@
         <v>2011</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>25</v>
@@ -4166,28 +4166,28 @@
         <v>0.49</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -4195,7 +4195,7 @@
         <v>2011</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>19</v>
@@ -4210,28 +4210,28 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>894</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>901</v>
-      </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -4239,7 +4239,7 @@
         <v>2011</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>14</v>
@@ -4254,28 +4254,28 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -4283,7 +4283,7 @@
         <v>2011</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>19</v>
@@ -4298,28 +4298,28 @@
         <v>0.54</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -4327,7 +4327,7 @@
         <v>2011</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>30</v>
@@ -4342,28 +4342,28 @@
         <v>0.53</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -4371,7 +4371,7 @@
         <v>2011</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>25</v>
@@ -4386,25 +4386,25 @@
         <v>0.6</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>92</v>
@@ -4415,7 +4415,7 @@
         <v>2011</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>30</v>
@@ -4430,28 +4430,28 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -4474,28 +4474,28 @@
         <v>0.62</v>
       </c>
       <c r="G26" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>904</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>905</v>
-      </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -4518,28 +4518,28 @@
         <v>0.52</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -4562,28 +4562,28 @@
         <v>0.51</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -4606,28 +4606,28 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H29" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="I29" s="13" t="s">
-        <v>895</v>
-      </c>
       <c r="J29" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -4650,28 +4650,28 @@
         <v>0.61</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J30" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -4694,28 +4694,28 @@
         <v>0.53</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J31" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -4738,28 +4738,28 @@
         <v>0.48</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H32" s="12" t="s">
-        <v>890</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>908</v>
-      </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -4782,28 +4782,28 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H33" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="I33" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="I33" s="13" t="s">
-        <v>887</v>
-      </c>
       <c r="J33" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -4826,28 +4826,28 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K34" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -4870,28 +4870,28 @@
         <v>0.51</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J35" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -4914,28 +4914,28 @@
         <v>0.54</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J36" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -4958,28 +4958,28 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J37" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -5002,28 +5002,28 @@
         <v>0.53</v>
       </c>
       <c r="G38" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="H38" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>888</v>
-      </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -5046,28 +5046,28 @@
         <v>0.46</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J39" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -5090,28 +5090,28 @@
         <v>0.51</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J40" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="N40" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -5134,25 +5134,25 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J41" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>75</v>
@@ -5178,28 +5178,28 @@
         <v>0.48</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J42" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="N42" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -5222,28 +5222,28 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J43" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -5266,28 +5266,28 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G44" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="H44" s="12" t="s">
-        <v>894</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>901</v>
-      </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="N44" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -5310,28 +5310,28 @@
         <v>0.53</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J45" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -5354,28 +5354,28 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J46" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -5398,28 +5398,28 @@
         <v>0.62</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J47" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -5442,28 +5442,28 @@
         <v>0.54</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J48" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="N48" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -5486,28 +5486,28 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H49" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>890</v>
       </c>
-      <c r="I49" s="13" t="s">
-        <v>891</v>
-      </c>
       <c r="J49" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="M49" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="N49" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -5515,7 +5515,7 @@
         <v>2012</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>30</v>
@@ -5530,28 +5530,28 @@
         <v>0.5</v>
       </c>
       <c r="G50" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="H50" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>916</v>
-      </c>
-      <c r="J50" s="2" t="s">
+      <c r="K50" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="N50" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -5559,7 +5559,7 @@
         <v>2012</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>19</v>
@@ -5574,28 +5574,28 @@
         <v>0.51</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J51" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="M51" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="N51" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -5603,7 +5603,7 @@
         <v>2012</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>14</v>
@@ -5618,28 +5618,28 @@
         <v>0.6</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J52" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="M52" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="N52" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -5647,7 +5647,7 @@
         <v>2012</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>25</v>
@@ -5662,28 +5662,28 @@
         <v>0.44</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H53" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="I53" s="13" t="s">
         <v>882</v>
       </c>
-      <c r="I53" s="13" t="s">
-        <v>883</v>
-      </c>
       <c r="J53" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="N53" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -5691,7 +5691,7 @@
         <v>2012</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>30</v>
@@ -5706,28 +5706,28 @@
         <v>0.62</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J54" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="M54" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="N54" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -5735,7 +5735,7 @@
         <v>2012</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>14</v>
@@ -5750,28 +5750,28 @@
         <v>0.46</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J55" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="M55" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -5779,7 +5779,7 @@
         <v>2012</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>25</v>
@@ -5794,28 +5794,28 @@
         <v>0.64</v>
       </c>
       <c r="G56" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="H56" s="12" t="s">
-        <v>894</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>895</v>
-      </c>
-      <c r="J56" s="2" t="s">
+      <c r="K56" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -5823,7 +5823,7 @@
         <v>2012</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>19</v>
@@ -5838,28 +5838,28 @@
         <v>0.54</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J57" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="L57" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="M57" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="N57" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -5867,7 +5867,7 @@
         <v>2012</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>30</v>
@@ -5882,28 +5882,28 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J58" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="K58" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="L58" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="N58" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -5911,7 +5911,7 @@
         <v>2012</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>14</v>
@@ -5926,28 +5926,28 @@
         <v>0.54</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J59" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="N59" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -5955,7 +5955,7 @@
         <v>2012</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>25</v>
@@ -5970,28 +5970,28 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J60" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="M60" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="N60" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -5999,7 +5999,7 @@
         <v>2012</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>30</v>
@@ -6014,22 +6014,22 @@
         <v>0.5</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J61" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="L61" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>64</v>
@@ -6058,28 +6058,28 @@
         <v>0.5</v>
       </c>
       <c r="G62" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H62" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>888</v>
-      </c>
-      <c r="J62" s="2" t="s">
+      <c r="K62" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="M62" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N62" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -6102,28 +6102,28 @@
         <v>0.35</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J63" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="L63" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="M63" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="N63" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -6146,28 +6146,28 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J64" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="L64" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="M64" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="N64" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -6190,28 +6190,28 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H65" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="I65" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="I65" s="13" t="s">
-        <v>895</v>
-      </c>
       <c r="J65" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="K65" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="L65" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="M65" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="N65" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -6234,28 +6234,28 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J66" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="K66" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="L66" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="N66" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -6278,28 +6278,28 @@
         <v>0.54</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>91</v>
       </c>
       <c r="L67" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M67" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="N67" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -6322,28 +6322,28 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G68" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="H68" s="12" t="s">
-        <v>884</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>898</v>
-      </c>
-      <c r="J68" s="2" t="s">
+      <c r="K68" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="L68" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="N68" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -6366,28 +6366,28 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J69" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="K69" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="L69" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="M69" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="N69" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -6410,28 +6410,28 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H70" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="I70" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="I70" s="13" t="s">
-        <v>895</v>
-      </c>
       <c r="J70" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="L70" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="N70" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -6454,28 +6454,28 @@
         <v>0.6</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H71" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="I71" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="I71" s="13" t="s">
-        <v>895</v>
-      </c>
       <c r="J71" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="L71" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="M71" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="N71" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -6498,28 +6498,28 @@
         <v>0.61</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J72" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L72" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="L72" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="N72" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -6542,28 +6542,28 @@
         <v>0.6</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J73" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>64</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -6582,28 +6582,28 @@
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="J74" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="H74" s="12" t="s">
-        <v>884</v>
-      </c>
-      <c r="I74" s="13" t="s">
-        <v>898</v>
-      </c>
-      <c r="J74" s="2" t="s">
+      <c r="K74" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="L74" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="M74" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="N74" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -6622,28 +6622,28 @@
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J75" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="L75" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="M75" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="N75" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -6662,28 +6662,28 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J76" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="K76" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="L76" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="M76" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="N76" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -6702,28 +6702,28 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J77" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="L77" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="M77" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="M77" s="1" t="s">
+      <c r="N77" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -6742,28 +6742,28 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H78" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="I78" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="I78" s="13" t="s">
-        <v>887</v>
-      </c>
       <c r="J78" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K78" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="L78" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="M78" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="M78" s="1" t="s">
+      <c r="N78" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -6782,28 +6782,28 @@
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J79" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M79" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="K79" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="N79" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -6822,25 +6822,25 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>921</v>
+      </c>
+      <c r="J80" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="H80" s="12" t="s">
-        <v>894</v>
-      </c>
-      <c r="I80" s="13" t="s">
-        <v>922</v>
-      </c>
-      <c r="J80" s="2" t="s">
+      <c r="K80" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="L80" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="M80" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>77</v>
@@ -6862,28 +6862,28 @@
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J81" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="L81" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="N81" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -6902,28 +6902,28 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J82" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="K82" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="K82" s="1" t="s">
+      <c r="L82" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="M82" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="N82" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -6942,28 +6942,28 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H83" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="I83" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="I83" s="13" t="s">
-        <v>895</v>
-      </c>
       <c r="J83" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K83" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="L83" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="M83" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="M83" s="1" t="s">
+      <c r="N83" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -6982,28 +6982,28 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J84" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="K84" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="L84" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M84" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="L84" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="M84" s="1" t="s">
+      <c r="N84" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -7022,25 +7022,25 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J85" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K85" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="K85" s="1" t="s">
+      <c r="L85" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="M85" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>66</v>
@@ -7051,7 +7051,7 @@
         <v>2013</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>14</v>
@@ -7062,28 +7062,28 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>911</v>
+      </c>
+      <c r="J86" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H86" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="I86" s="13" t="s">
-        <v>912</v>
-      </c>
-      <c r="J86" s="2" t="s">
+      <c r="K86" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="L86" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="L86" s="1" t="s">
+      <c r="M86" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="M86" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="N86" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -7091,7 +7091,7 @@
         <v>2013</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>25</v>
@@ -7102,28 +7102,28 @@
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J87" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="K87" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="K87" s="1" t="s">
+      <c r="L87" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="M87" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="M87" s="1" t="s">
+      <c r="N87" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
@@ -7131,7 +7131,7 @@
         <v>2013</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>30</v>
@@ -7142,28 +7142,28 @@
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J88" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="K88" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="L88" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="M88" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="M88" s="1" t="s">
+      <c r="N88" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
@@ -7171,7 +7171,7 @@
         <v>2013</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>25</v>
@@ -7182,28 +7182,28 @@
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J89" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="K89" s="1" t="s">
-        <v>496</v>
-      </c>
       <c r="L89" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
@@ -7211,7 +7211,7 @@
         <v>2013</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>30</v>
@@ -7222,28 +7222,28 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H90" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="I90" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="I90" s="13" t="s">
-        <v>895</v>
-      </c>
       <c r="J90" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="K90" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="L90" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="M90" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="M90" s="1" t="s">
+      <c r="N90" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -7251,7 +7251,7 @@
         <v>2013</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>14</v>
@@ -7262,28 +7262,28 @@
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J91" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="K91" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="K91" s="1" t="s">
+      <c r="L91" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="M91" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="M91" s="1" t="s">
+      <c r="N91" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
@@ -7291,7 +7291,7 @@
         <v>2013</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>30</v>
@@ -7302,28 +7302,28 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="J92" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="H92" s="12" t="s">
-        <v>884</v>
-      </c>
-      <c r="I92" s="13" t="s">
-        <v>898</v>
-      </c>
-      <c r="J92" s="2" t="s">
+      <c r="K92" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="L92" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="M92" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="M92" s="1" t="s">
+      <c r="N92" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -7331,7 +7331,7 @@
         <v>2013</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>25</v>
@@ -7342,28 +7342,28 @@
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J93" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="K93" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="K93" s="1" t="s">
+      <c r="L93" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="M93" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="M93" s="1" t="s">
+      <c r="N93" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -7371,7 +7371,7 @@
         <v>2013</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>19</v>
@@ -7382,28 +7382,28 @@
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J94" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="K94" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="K94" s="1" t="s">
+      <c r="L94" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="M94" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="M94" s="1" t="s">
+      <c r="N94" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -7411,7 +7411,7 @@
         <v>2013</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>25</v>
@@ -7422,28 +7422,28 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J95" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="K95" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="L95" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="M95" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="M95" s="1" t="s">
+      <c r="N95" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -7451,7 +7451,7 @@
         <v>2013</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>14</v>
@@ -7462,28 +7462,28 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J96" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="K96" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="L96" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>74</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -7491,7 +7491,7 @@
         <v>2013</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>19</v>
@@ -7502,28 +7502,28 @@
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J97" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="K97" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="L97" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="M97" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="N97" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -7545,10 +7545,10 @@
         <v>7</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>8</v>
@@ -7585,13 +7585,13 @@
         <v>7</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>15</v>
@@ -7625,10 +7625,10 @@
         <v>7</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>20</v>
@@ -7665,13 +7665,13 @@
         <v>7</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>26</v>
@@ -7705,10 +7705,10 @@
         <v>7</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>31</v>
@@ -7745,10 +7745,10 @@
         <v>7</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>36</v>
@@ -7785,10 +7785,10 @@
         <v>41</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I104" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>42</v>
@@ -7825,10 +7825,10 @@
         <v>41</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>47</v>
@@ -7865,13 +7865,13 @@
         <v>41</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>52</v>
@@ -7905,10 +7905,10 @@
         <v>41</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>56</v>
@@ -7945,25 +7945,25 @@
         <v>41</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>61</v>
       </c>
       <c r="K108" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="L108" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="L108" s="1" t="s">
+      <c r="M108" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="M108" s="1" t="s">
+      <c r="N108" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -7985,10 +7985,10 @@
         <v>41</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>62</v>
@@ -8026,28 +8026,28 @@
         <v>0.36</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J110" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="K110" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="K110" s="2" t="s">
+      <c r="L110" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="L110" s="2" t="s">
+      <c r="M110" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="M110" s="2" t="s">
+      <c r="N110" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="N110" s="2" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
@@ -8070,28 +8070,28 @@
         <v>0.51</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J111" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="K111" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="K111" s="2" t="s">
+      <c r="L111" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="L111" s="2" t="s">
+      <c r="M111" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="M111" s="2" t="s">
+      <c r="N111" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="N111" s="2" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -8114,28 +8114,28 @@
         <v>0.64</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I112" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J112" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="K112" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="L112" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="L112" s="2" t="s">
+      <c r="M112" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="M112" s="2" t="s">
+      <c r="N112" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="N112" s="2" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -8158,28 +8158,28 @@
         <v>0.44</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J113" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="K113" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="L113" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="L113" s="2" t="s">
+      <c r="M113" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="M113" s="2" t="s">
+      <c r="N113" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="N113" s="2" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -8202,28 +8202,28 @@
         <v>0.52</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L114" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="M114" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="M114" s="2" t="s">
+      <c r="N114" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="N114" s="2" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
@@ -8246,28 +8246,28 @@
         <v>0.53</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J115" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="K115" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="L115" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="L115" s="2" t="s">
+      <c r="M115" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="M115" s="2" t="s">
+      <c r="N115" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="N115" s="2" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
@@ -8290,28 +8290,28 @@
         <v>0.66</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J116" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="K116" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="K116" s="2" t="s">
+      <c r="L116" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="L116" s="2" t="s">
+      <c r="M116" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="M116" s="2" t="s">
+      <c r="N116" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="N116" s="2" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -8334,28 +8334,28 @@
         <v>0.65</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J117" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="K117" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="L117" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="L117" s="2" t="s">
+      <c r="M117" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="M117" s="2" t="s">
+      <c r="N117" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="N117" s="2" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -8378,28 +8378,28 @@
         <v>0.63</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I118" s="13" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K118" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="L118" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="L118" s="2" t="s">
+      <c r="M118" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="M118" s="2" t="s">
+      <c r="N118" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="N118" s="2" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -8422,28 +8422,28 @@
         <v>0.63</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I119" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="K119" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="L119" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="L119" s="2" t="s">
+      <c r="M119" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="M119" s="2" t="s">
+      <c r="N119" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="N119" s="2" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -8466,28 +8466,28 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I120" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J120" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="K120" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="K120" s="2" t="s">
+      <c r="L120" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="L120" s="2" t="s">
+      <c r="M120" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="M120" s="2" t="s">
+      <c r="N120" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="N120" s="2" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -8510,28 +8510,28 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I121" s="13" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J121" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="K121" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="K121" s="2" t="s">
+      <c r="L121" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="L121" s="2" t="s">
+      <c r="M121" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="M121" s="2" t="s">
+      <c r="N121" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="N121" s="2" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -8539,7 +8539,7 @@
         <v>2014</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>30</v>
@@ -8554,28 +8554,28 @@
         <v>0.5</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I122" s="13" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="K122" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="L122" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="L122" s="2" t="s">
+      <c r="M122" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="M122" s="2" t="s">
+      <c r="N122" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
@@ -8583,7 +8583,7 @@
         <v>2014</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>14</v>
@@ -8598,28 +8598,28 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I123" s="13" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K123" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="L123" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="L123" s="2" t="s">
+      <c r="M123" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="M123" s="2" t="s">
+      <c r="N123" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="N123" s="2" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
@@ -8627,7 +8627,7 @@
         <v>2014</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>25</v>
@@ -8642,28 +8642,28 @@
         <v>0.63</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I124" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J124" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="K124" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="K124" s="2" t="s">
+      <c r="L124" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="L124" s="2" t="s">
+      <c r="M124" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="M124" s="2" t="s">
+      <c r="N124" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="N124" s="2" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
@@ -8671,7 +8671,7 @@
         <v>2014</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>19</v>
@@ -8686,28 +8686,28 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J125" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="K125" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="L125" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="L125" s="2" t="s">
+      <c r="M125" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="M125" s="2" t="s">
+      <c r="N125" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="N125" s="2" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
@@ -8715,7 +8715,7 @@
         <v>2014</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>30</v>
@@ -8730,28 +8730,28 @@
         <v>0.63</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I126" s="13" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J126" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="K126" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="K126" s="2" t="s">
+      <c r="L126" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="L126" s="2" t="s">
+      <c r="M126" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="M126" s="2" t="s">
+      <c r="N126" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="N126" s="2" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -8759,7 +8759,7 @@
         <v>2014</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>19</v>
@@ -8774,28 +8774,28 @@
         <v>0.64</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I127" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K127" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="L127" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="L127" s="2" t="s">
+      <c r="M127" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="M127" s="2" t="s">
+      <c r="N127" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
@@ -8803,7 +8803,7 @@
         <v>2014</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>25</v>
@@ -8818,28 +8818,28 @@
         <v>0.51</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I128" s="13" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J128" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="K128" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="K128" s="2" t="s">
+      <c r="L128" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="L128" s="2" t="s">
+      <c r="M128" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="M128" s="2" t="s">
+      <c r="N128" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="N128" s="2" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
@@ -8847,7 +8847,7 @@
         <v>2014</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>14</v>
@@ -8862,28 +8862,28 @@
         <v>0.64</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I129" s="13" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J129" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="K129" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="K129" s="2" t="s">
+      <c r="L129" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="L129" s="2" t="s">
+      <c r="M129" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="M129" s="2" t="s">
+      <c r="N129" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="N129" s="2" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -8891,7 +8891,7 @@
         <v>2014</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>14</v>
@@ -8906,28 +8906,28 @@
         <v>0.61</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I130" s="13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J130" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="K130" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="K130" s="2" t="s">
+      <c r="L130" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="L130" s="2" t="s">
+      <c r="M130" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="M130" s="2" t="s">
+      <c r="N130" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="N130" s="2" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
@@ -8935,7 +8935,7 @@
         <v>2014</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>19</v>
@@ -8950,28 +8950,28 @@
         <v>0.64</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I131" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J131" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="K131" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="L131" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="L131" s="2" t="s">
+      <c r="M131" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="M131" s="2" t="s">
+      <c r="N131" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="N131" s="2" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -8979,7 +8979,7 @@
         <v>2014</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>30</v>
@@ -8994,28 +8994,28 @@
         <v>0.47</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I132" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J132" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="K132" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="K132" s="2" t="s">
+      <c r="L132" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="L132" s="2" t="s">
+      <c r="M132" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="M132" s="2" t="s">
+      <c r="N132" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="N132" s="2" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -9023,7 +9023,7 @@
         <v>2014</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>25</v>
@@ -9038,28 +9038,28 @@
         <v>0.48</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I133" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="K133" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="L133" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="L133" s="2" t="s">
+      <c r="M133" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="M133" s="2" t="s">
-        <v>655</v>
-      </c>
       <c r="N133" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -9082,28 +9082,28 @@
         <v>0.51</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I134" s="13" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J134" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L134" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="K134" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="L134" s="2" t="s">
+      <c r="M134" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="M134" s="2" t="s">
+      <c r="N134" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="N134" s="2" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -9126,28 +9126,28 @@
         <v>0.54</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I135" s="13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J135" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="K135" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="L135" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="L135" s="2" t="s">
+      <c r="M135" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="M135" s="2" t="s">
+      <c r="N135" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="N135" s="2" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -9170,28 +9170,28 @@
         <v>0.54</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J136" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="K136" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="L136" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="L136" s="2" t="s">
+      <c r="M136" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="M136" s="2" t="s">
+      <c r="N136" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="N136" s="2" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -9214,28 +9214,28 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I137" s="13" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J137" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="K137" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="K137" s="2" t="s">
+      <c r="L137" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="L137" s="2" t="s">
+      <c r="M137" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="M137" s="2" t="s">
+      <c r="N137" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="N137" s="2" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -9258,28 +9258,28 @@
         <v>0.51</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I138" s="13" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J138" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L138" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="K138" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L138" s="2" t="s">
+      <c r="M138" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="M138" s="2" t="s">
+      <c r="N138" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="N138" s="2" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -9302,28 +9302,28 @@
         <v>0.51</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H139" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="I139" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="I139" s="13" t="s">
-        <v>895</v>
-      </c>
       <c r="J139" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="K139" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="K139" s="2" t="s">
+      <c r="L139" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="L139" s="2" t="s">
+      <c r="M139" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="M139" s="2" t="s">
+      <c r="N139" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="N139" s="2" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -9346,28 +9346,28 @@
         <v>0.49</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I140" s="13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J140" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="K140" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="K140" s="2" t="s">
+      <c r="L140" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="L140" s="2" t="s">
+      <c r="M140" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="M140" s="2" t="s">
+      <c r="N140" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="N140" s="2" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -9390,28 +9390,28 @@
         <v>0.54</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I141" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J141" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="K141" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="K141" s="2" t="s">
+      <c r="L141" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="L141" s="2" t="s">
+      <c r="M141" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="M141" s="2" t="s">
+      <c r="N141" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="N141" s="2" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -9434,28 +9434,28 @@
         <v>0.54</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I142" s="13" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J142" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="K142" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="K142" s="2" t="s">
+      <c r="L142" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="L142" s="2" t="s">
+      <c r="M142" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="M142" s="2" t="s">
+      <c r="N142" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -9478,28 +9478,28 @@
         <v>0.59</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I143" s="13" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J143" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="K143" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="K143" s="2" t="s">
+      <c r="L143" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="L143" s="2" t="s">
+      <c r="M143" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="M143" s="2" t="s">
+      <c r="N143" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="N143" s="2" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -9522,28 +9522,28 @@
         <v>0.42</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I144" s="13" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J144" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="K144" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="K144" s="2" t="s">
+      <c r="L144" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="L144" s="2" t="s">
+      <c r="M144" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M144" s="2" t="s">
+      <c r="N144" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
@@ -9566,28 +9566,28 @@
         <v>0.53</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I145" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J145" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="K145" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="L145" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="L145" s="2" t="s">
+      <c r="M145" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="M145" s="2" t="s">
+      <c r="N145" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -9606,28 +9606,28 @@
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I146" s="13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J146" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="L146" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="K146" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="L146" s="2" t="s">
+      <c r="M146" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="M146" s="2" t="s">
+      <c r="N146" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="N146" s="2" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
@@ -9646,28 +9646,28 @@
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I147" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J147" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="K147" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="K147" s="2" t="s">
+      <c r="L147" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="L147" s="2" t="s">
+      <c r="M147" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="M147" s="2" t="s">
+      <c r="N147" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="N147" s="2" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
@@ -9686,28 +9686,28 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H148" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="I148" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="I148" s="13" t="s">
-        <v>895</v>
-      </c>
       <c r="J148" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="K148" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="K148" s="2" t="s">
+      <c r="L148" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="L148" s="2" t="s">
+      <c r="M148" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="M148" s="2" t="s">
+      <c r="N148" s="2" t="s">
         <v>726</v>
-      </c>
-      <c r="N148" s="2" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -9726,28 +9726,28 @@
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H149" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I149" s="13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J149" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="K149" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="K149" s="2" t="s">
+      <c r="L149" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="L149" s="2" t="s">
+      <c r="M149" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="M149" s="2" t="s">
+      <c r="N149" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="N149" s="2" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -9766,28 +9766,28 @@
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I150" s="13" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J150" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="K150" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="K150" s="2" t="s">
+      <c r="L150" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="L150" s="2" t="s">
+      <c r="M150" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="M150" s="2" t="s">
+      <c r="N150" s="2" t="s">
         <v>736</v>
-      </c>
-      <c r="N150" s="2" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
@@ -9806,28 +9806,28 @@
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I151" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J151" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="K151" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="K151" s="2" t="s">
+      <c r="L151" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="L151" s="2" t="s">
+      <c r="M151" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="M151" s="2" t="s">
+      <c r="N151" s="2" t="s">
         <v>741</v>
-      </c>
-      <c r="N151" s="2" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
@@ -9846,28 +9846,28 @@
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H152" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I152" s="13" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J152" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="K152" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="K152" s="2" t="s">
+      <c r="L152" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="L152" s="2" t="s">
+      <c r="M152" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="M152" s="2" t="s">
+      <c r="N152" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="N152" s="2" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
@@ -9886,28 +9886,28 @@
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I153" s="13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J153" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="K153" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="K153" s="2" t="s">
+      <c r="L153" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="L153" s="2" t="s">
+      <c r="M153" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="M153" s="2" t="s">
+      <c r="N153" s="2" t="s">
         <v>751</v>
-      </c>
-      <c r="N153" s="2" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
@@ -9926,28 +9926,28 @@
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I154" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J154" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="K154" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="K154" s="2" t="s">
+      <c r="L154" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="L154" s="2" t="s">
+      <c r="M154" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="M154" s="2" t="s">
+      <c r="N154" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="N154" s="2" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -9966,28 +9966,28 @@
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I155" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J155" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="K155" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="K155" s="2" t="s">
+      <c r="L155" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="L155" s="2" t="s">
+      <c r="M155" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="M155" s="2" t="s">
+      <c r="N155" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="N155" s="2" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
@@ -10006,28 +10006,28 @@
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H156" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="I156" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="I156" s="13" t="s">
-        <v>895</v>
-      </c>
       <c r="J156" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="K156" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="L156" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="L156" s="2" t="s">
+      <c r="M156" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="M156" s="2" t="s">
+      <c r="N156" s="2" t="s">
         <v>766</v>
-      </c>
-      <c r="N156" s="2" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
@@ -10046,28 +10046,28 @@
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I157" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J157" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L157" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="K157" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="L157" s="2" t="s">
+      <c r="M157" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="M157" s="2" t="s">
+      <c r="N157" s="2" t="s">
         <v>770</v>
-      </c>
-      <c r="N157" s="2" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
@@ -10075,7 +10075,7 @@
         <v>2015</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>19</v>
@@ -10086,28 +10086,28 @@
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I158" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J158" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="K158" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="K158" s="2" t="s">
+      <c r="L158" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="L158" s="2" t="s">
+      <c r="M158" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="M158" s="2" t="s">
+      <c r="N158" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="N158" s="2" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -10115,7 +10115,7 @@
         <v>2015</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>30</v>
@@ -10126,28 +10126,28 @@
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I159" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J159" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="K159" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="K159" s="2" t="s">
+      <c r="L159" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="L159" s="2" t="s">
+      <c r="M159" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="M159" s="2" t="s">
+      <c r="N159" s="2" t="s">
         <v>780</v>
-      </c>
-      <c r="N159" s="2" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -10155,7 +10155,7 @@
         <v>2015</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>25</v>
@@ -10166,28 +10166,28 @@
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I160" s="13" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J160" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L160" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M160" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="N160" s="2" t="s">
         <v>782</v>
-      </c>
-      <c r="K160" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="L160" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="M160" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="N160" s="2" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -10195,7 +10195,7 @@
         <v>2015</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>14</v>
@@ -10206,28 +10206,28 @@
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H161" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I161" s="13" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="K161" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="L161" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="L161" s="2" t="s">
+      <c r="M161" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="M161" s="2" t="s">
+      <c r="N161" s="2" t="s">
         <v>786</v>
-      </c>
-      <c r="N161" s="2" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
@@ -10235,7 +10235,7 @@
         <v>2015</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>30</v>
@@ -10246,28 +10246,28 @@
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H162" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I162" s="13" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J162" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="K162" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="K162" s="2" t="s">
+      <c r="L162" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="L162" s="2" t="s">
+      <c r="M162" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="M162" s="2" t="s">
+      <c r="N162" s="2" t="s">
         <v>791</v>
-      </c>
-      <c r="N162" s="2" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
@@ -10275,7 +10275,7 @@
         <v>2015</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>14</v>
@@ -10286,28 +10286,28 @@
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="8" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H163" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I163" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J163" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M163" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="K163" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="L163" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="M163" s="2" t="s">
+      <c r="N163" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="N163" s="2" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -10315,7 +10315,7 @@
         <v>2015</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>30</v>
@@ -10326,28 +10326,28 @@
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H164" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I164" s="13" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J164" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="K164" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="K164" s="2" t="s">
+      <c r="L164" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="L164" s="2" t="s">
+      <c r="M164" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="M164" s="2" t="s">
+      <c r="N164" s="2" t="s">
         <v>799</v>
-      </c>
-      <c r="N164" s="2" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -10355,7 +10355,7 @@
         <v>2015</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>14</v>
@@ -10366,28 +10366,28 @@
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H165" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I165" s="13" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J165" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="K165" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="K165" s="2" t="s">
+      <c r="L165" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="M165" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="L165" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="M165" s="2" t="s">
+      <c r="N165" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="N165" s="2" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -10395,7 +10395,7 @@
         <v>2015</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>19</v>
@@ -10406,28 +10406,28 @@
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H166" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I166" s="13" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="K166" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="L166" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="L166" s="2" t="s">
+      <c r="M166" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="M166" s="2" t="s">
+      <c r="N166" s="2" t="s">
         <v>807</v>
-      </c>
-      <c r="N166" s="2" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
@@ -10435,7 +10435,7 @@
         <v>2015</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>30</v>
@@ -10446,28 +10446,28 @@
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I167" s="13" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J167" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="K167" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="K167" s="2" t="s">
+      <c r="L167" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="L167" s="2" t="s">
+      <c r="M167" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="M167" s="2" t="s">
+      <c r="N167" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="N167" s="2" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
@@ -10475,7 +10475,7 @@
         <v>2015</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>14</v>
@@ -10486,28 +10486,28 @@
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
       <c r="G168" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I168" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J168" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="K168" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="K168" s="2" t="s">
+      <c r="L168" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N168" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="L168" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="M168" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="N168" s="2" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
@@ -10515,7 +10515,7 @@
         <v>2015</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>25</v>
@@ -10526,28 +10526,28 @@
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
       <c r="G169" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H169" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I169" s="13" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J169" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L169" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="K169" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="L169" s="2" t="s">
+      <c r="M169" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="M169" s="2" t="s">
+      <c r="N169" s="2" t="s">
         <v>819</v>
-      </c>
-      <c r="N169" s="2" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
@@ -10566,28 +10566,28 @@
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H170" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I170" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J170" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="K170" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="K170" s="1" t="s">
+      <c r="L170" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="L170" s="2" t="s">
+      <c r="M170" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="M170" s="2" t="s">
+      <c r="N170" s="2" t="s">
         <v>824</v>
-      </c>
-      <c r="N170" s="2" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -10606,28 +10606,28 @@
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H171" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I171" s="13" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J171" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="K171" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="K171" s="2" t="s">
+      <c r="L171" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="L171" s="2" t="s">
+      <c r="M171" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="M171" s="2" t="s">
+      <c r="N171" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="N171" s="2" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -10646,28 +10646,28 @@
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H172" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I172" s="13" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J172" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="K172" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="K172" s="2" t="s">
+      <c r="L172" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="L172" s="2" t="s">
+      <c r="M172" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="M172" s="2" t="s">
+      <c r="N172" s="2" t="s">
         <v>834</v>
-      </c>
-      <c r="N172" s="2" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
@@ -10686,28 +10686,28 @@
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H173" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I173" s="13" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J173" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="K173" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="K173" s="2" t="s">
+      <c r="L173" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="L173" s="2" t="s">
+      <c r="M173" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="M173" s="2" t="s">
+      <c r="N173" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="N173" s="2" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -10726,28 +10726,28 @@
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H174" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I174" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J174" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="K174" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="K174" s="2" t="s">
+      <c r="L174" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="L174" s="2" t="s">
+      <c r="M174" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="M174" s="2" t="s">
+      <c r="N174" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="N174" s="2" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
@@ -10766,28 +10766,28 @@
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H175" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J175" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="K175" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="K175" s="2" t="s">
+      <c r="L175" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="L175" s="2" t="s">
+      <c r="M175" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="M175" s="2" t="s">
+      <c r="N175" s="2" t="s">
         <v>849</v>
-      </c>
-      <c r="N175" s="2" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -10806,28 +10806,28 @@
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H176" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I176" s="13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J176" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="K176" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="K176" s="2" t="s">
+      <c r="L176" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="L176" s="2" t="s">
+      <c r="M176" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="M176" s="2" t="s">
+      <c r="N176" s="2" t="s">
         <v>854</v>
-      </c>
-      <c r="N176" s="2" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="177" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -10846,28 +10846,28 @@
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H177" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I177" s="13" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J177" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="K177" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="K177" s="2" t="s">
+      <c r="L177" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="L177" s="2" t="s">
+      <c r="M177" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="M177" s="2" t="s">
+      <c r="N177" s="2" t="s">
         <v>859</v>
-      </c>
-      <c r="N177" s="2" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
@@ -10886,28 +10886,28 @@
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H178" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I178" s="13" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J178" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="K178" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="K178" s="2" t="s">
+      <c r="L178" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="L178" s="2" t="s">
+      <c r="M178" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="M178" s="2" t="s">
+      <c r="N178" s="2" t="s">
         <v>864</v>
-      </c>
-      <c r="N178" s="2" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
@@ -10926,28 +10926,28 @@
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H179" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I179" s="13" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J179" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="K179" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="K179" s="2" t="s">
+      <c r="L179" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="L179" s="2" t="s">
+      <c r="M179" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="M179" s="2" t="s">
+      <c r="N179" s="2" t="s">
         <v>869</v>
-      </c>
-      <c r="N179" s="2" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -10966,28 +10966,28 @@
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H180" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="I180" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="I180" s="13" t="s">
-        <v>895</v>
-      </c>
       <c r="J180" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="K180" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="K180" s="2" t="s">
+      <c r="L180" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="L180" s="2" t="s">
+      <c r="M180" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="M180" s="2" t="s">
+      <c r="N180" s="2" t="s">
         <v>874</v>
-      </c>
-      <c r="N180" s="2" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
@@ -11006,28 +11006,28 @@
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H181" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="I181" s="13" t="s">
         <v>882</v>
       </c>
-      <c r="I181" s="13" t="s">
-        <v>883</v>
-      </c>
       <c r="J181" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="K181" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="K181" s="2" t="s">
+      <c r="L181" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="L181" s="2" t="s">
+      <c r="M181" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="M181" s="2" t="s">
+      <c r="N181" s="2" t="s">
         <v>879</v>
-      </c>
-      <c r="N181" s="2" t="s">
-        <v>880</v>
       </c>
     </row>
   </sheetData>

--- a/reading/ReadingItems.xlsx
+++ b/reading/ReadingItems.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17940" yWindow="6880" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ReadingItems" sheetId="1" r:id="rId1"/>
@@ -2536,9 +2536,6 @@
     <t>defy expectations of others</t>
   </si>
   <si>
-    <t>The sentense "We went everywhere together" (line 8) is ironic because the narrator views</t>
-  </si>
-  <si>
     <t>strength and fame as universal</t>
   </si>
   <si>
@@ -2996,6 +2993,9 @@
   </si>
   <si>
     <t>The inclusion of handcycling in the 2004 Paralympics demonstrates its</t>
+  </si>
+  <si>
+    <t>The sentence "We went everywhere together" (line 8) is ironic because the narrator views</t>
   </si>
 </sst>
 </file>
@@ -3381,10 +3381,10 @@
   <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="J161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="J172" sqref="J172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3416,10 +3416,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>974</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>975</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>0</v>
@@ -3428,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
@@ -3465,13 +3465,13 @@
         <v>67</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>881</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>882</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>68</v>
@@ -3505,10 +3505,10 @@
         <v>67</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>883</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>884</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>73</v>
@@ -3545,10 +3545,10 @@
         <v>67</v>
       </c>
       <c r="H4" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>885</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>886</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>78</v>
@@ -3585,10 +3585,10 @@
         <v>67</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>83</v>
@@ -3625,10 +3625,10 @@
         <v>67</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>88</v>
@@ -3665,10 +3665,10 @@
         <v>67</v>
       </c>
       <c r="H7" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>889</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>890</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>93</v>
@@ -3705,10 +3705,10 @@
         <v>98</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>99</v>
@@ -3745,13 +3745,13 @@
         <v>98</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>104</v>
@@ -3785,10 +3785,10 @@
         <v>98</v>
       </c>
       <c r="H10" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>893</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>894</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>108</v>
@@ -3825,10 +3825,10 @@
         <v>98</v>
       </c>
       <c r="H11" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>885</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>886</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>113</v>
@@ -3865,10 +3865,10 @@
         <v>98</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>118</v>
@@ -3905,10 +3905,10 @@
         <v>98</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>123</v>
@@ -3949,10 +3949,10 @@
         <v>127</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>128</v>
@@ -3993,7 +3993,7 @@
         <v>127</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>371</v>
@@ -4037,7 +4037,7 @@
         <v>127</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>793</v>
@@ -4081,10 +4081,10 @@
         <v>127</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>144</v>
@@ -4125,10 +4125,10 @@
         <v>127</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>149</v>
@@ -4169,10 +4169,10 @@
         <v>127</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>154</v>
@@ -4213,10 +4213,10 @@
         <v>159</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>160</v>
@@ -4257,10 +4257,10 @@
         <v>159</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>165</v>
@@ -4301,10 +4301,10 @@
         <v>159</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>170</v>
@@ -4345,10 +4345,10 @@
         <v>159</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>175</v>
@@ -4389,10 +4389,10 @@
         <v>159</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>180</v>
@@ -4433,10 +4433,10 @@
         <v>159</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>184</v>
@@ -4477,10 +4477,10 @@
         <v>189</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>190</v>
@@ -4521,10 +4521,10 @@
         <v>189</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>195</v>
@@ -4565,10 +4565,10 @@
         <v>189</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>200</v>
@@ -4609,10 +4609,10 @@
         <v>189</v>
       </c>
       <c r="H29" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>893</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>894</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>205</v>
@@ -4653,10 +4653,10 @@
         <v>189</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>210</v>
@@ -4697,10 +4697,10 @@
         <v>189</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>215</v>
@@ -4741,10 +4741,10 @@
         <v>220</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>221</v>
@@ -4785,10 +4785,10 @@
         <v>220</v>
       </c>
       <c r="H33" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="I33" s="13" t="s">
         <v>885</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>886</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>226</v>
@@ -4829,13 +4829,13 @@
         <v>220</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>231</v>
@@ -4873,10 +4873,10 @@
         <v>220</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>235</v>
@@ -4917,10 +4917,10 @@
         <v>220</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>240</v>
@@ -4961,10 +4961,10 @@
         <v>220</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>245</v>
@@ -5005,10 +5005,10 @@
         <v>250</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>251</v>
@@ -5049,10 +5049,10 @@
         <v>250</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>256</v>
@@ -5093,10 +5093,10 @@
         <v>250</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>261</v>
@@ -5137,10 +5137,10 @@
         <v>250</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>265</v>
@@ -5181,10 +5181,10 @@
         <v>250</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>269</v>
@@ -5225,10 +5225,10 @@
         <v>250</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>274</v>
@@ -5269,10 +5269,10 @@
         <v>279</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>280</v>
@@ -5313,10 +5313,10 @@
         <v>279</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>285</v>
@@ -5357,10 +5357,10 @@
         <v>279</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>290</v>
@@ -5401,10 +5401,10 @@
         <v>279</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>295</v>
@@ -5445,10 +5445,10 @@
         <v>279</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>300</v>
@@ -5489,10 +5489,10 @@
         <v>279</v>
       </c>
       <c r="H49" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>889</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>890</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>305</v>
@@ -5533,10 +5533,10 @@
         <v>310</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>311</v>
@@ -5577,7 +5577,7 @@
         <v>310</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I51" s="13" t="s">
         <v>371</v>
@@ -5621,10 +5621,10 @@
         <v>310</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>321</v>
@@ -5665,10 +5665,10 @@
         <v>310</v>
       </c>
       <c r="H53" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="I53" s="13" t="s">
         <v>881</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>882</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>326</v>
@@ -5709,10 +5709,10 @@
         <v>310</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>331</v>
@@ -5753,7 +5753,7 @@
         <v>310</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I55" s="13" t="s">
         <v>371</v>
@@ -5797,10 +5797,10 @@
         <v>338</v>
       </c>
       <c r="H56" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="I56" s="13" t="s">
         <v>893</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>894</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>339</v>
@@ -5841,10 +5841,10 @@
         <v>338</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>344</v>
@@ -5885,10 +5885,10 @@
         <v>338</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>349</v>
@@ -5929,10 +5929,10 @@
         <v>338</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>354</v>
@@ -5973,10 +5973,10 @@
         <v>338</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>359</v>
@@ -6017,10 +6017,10 @@
         <v>338</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>364</v>
@@ -6061,10 +6061,10 @@
         <v>367</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>368</v>
@@ -6105,10 +6105,10 @@
         <v>367</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>372</v>
@@ -6149,10 +6149,10 @@
         <v>367</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>377</v>
@@ -6193,10 +6193,10 @@
         <v>367</v>
       </c>
       <c r="H65" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="I65" s="13" t="s">
         <v>893</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>894</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>382</v>
@@ -6237,10 +6237,10 @@
         <v>367</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>387</v>
@@ -6281,10 +6281,10 @@
         <v>367</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>392</v>
@@ -6325,10 +6325,10 @@
         <v>396</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>397</v>
@@ -6369,10 +6369,10 @@
         <v>396</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>402</v>
@@ -6413,10 +6413,10 @@
         <v>396</v>
       </c>
       <c r="H70" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="I70" s="13" t="s">
         <v>893</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>894</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>407</v>
@@ -6457,10 +6457,10 @@
         <v>396</v>
       </c>
       <c r="H71" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="I71" s="13" t="s">
         <v>893</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>894</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>412</v>
@@ -6501,10 +6501,10 @@
         <v>396</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>417</v>
@@ -6545,10 +6545,10 @@
         <v>396</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>421</v>
@@ -6585,10 +6585,10 @@
         <v>424</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>425</v>
@@ -6625,10 +6625,10 @@
         <v>424</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>430</v>
@@ -6665,10 +6665,10 @@
         <v>424</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>435</v>
@@ -6705,10 +6705,10 @@
         <v>424</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>440</v>
@@ -6745,10 +6745,10 @@
         <v>424</v>
       </c>
       <c r="H78" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="I78" s="13" t="s">
         <v>885</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>886</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>445</v>
@@ -6785,10 +6785,10 @@
         <v>424</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>450</v>
@@ -6825,10 +6825,10 @@
         <v>452</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I80" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>453</v>
@@ -6865,10 +6865,10 @@
         <v>452</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>457</v>
@@ -6905,10 +6905,10 @@
         <v>452</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>462</v>
@@ -6945,10 +6945,10 @@
         <v>452</v>
       </c>
       <c r="H83" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="I83" s="13" t="s">
         <v>893</v>
-      </c>
-      <c r="I83" s="13" t="s">
-        <v>894</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>467</v>
@@ -6985,10 +6985,10 @@
         <v>452</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>472</v>
@@ -7025,10 +7025,10 @@
         <v>452</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>476</v>
@@ -7065,10 +7065,10 @@
         <v>480</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>481</v>
@@ -7105,10 +7105,10 @@
         <v>480</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>484</v>
@@ -7145,10 +7145,10 @@
         <v>480</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>489</v>
@@ -7185,10 +7185,10 @@
         <v>480</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>494</v>
@@ -7225,10 +7225,10 @@
         <v>480</v>
       </c>
       <c r="H90" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="I90" s="13" t="s">
         <v>893</v>
-      </c>
-      <c r="I90" s="13" t="s">
-        <v>894</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>496</v>
@@ -7265,10 +7265,10 @@
         <v>480</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>501</v>
@@ -7305,10 +7305,10 @@
         <v>506</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>507</v>
@@ -7345,10 +7345,10 @@
         <v>506</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>512</v>
@@ -7385,10 +7385,10 @@
         <v>506</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>517</v>
@@ -7425,10 +7425,10 @@
         <v>506</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>522</v>
@@ -7465,10 +7465,10 @@
         <v>506</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>527</v>
@@ -7505,10 +7505,10 @@
         <v>506</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>531</v>
@@ -7545,10 +7545,10 @@
         <v>7</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>8</v>
@@ -7585,10 +7585,10 @@
         <v>7</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>542</v>
@@ -7625,10 +7625,10 @@
         <v>7</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>20</v>
@@ -7665,10 +7665,10 @@
         <v>7</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>536</v>
@@ -7705,10 +7705,10 @@
         <v>7</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>31</v>
@@ -7745,10 +7745,10 @@
         <v>7</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>36</v>
@@ -7785,10 +7785,10 @@
         <v>41</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I104" s="13" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>42</v>
@@ -7825,10 +7825,10 @@
         <v>41</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>47</v>
@@ -7865,10 +7865,10 @@
         <v>41</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>537</v>
@@ -7905,10 +7905,10 @@
         <v>41</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>56</v>
@@ -7945,10 +7945,10 @@
         <v>41</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>61</v>
@@ -7985,10 +7985,10 @@
         <v>41</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>62</v>
@@ -8026,13 +8026,13 @@
         <v>0.36</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>544</v>
@@ -8070,13 +8070,13 @@
         <v>0.51</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>549</v>
@@ -8114,13 +8114,13 @@
         <v>0.64</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I112" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>554</v>
@@ -8158,13 +8158,13 @@
         <v>0.44</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>559</v>
@@ -8202,16 +8202,16 @@
         <v>0.52</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>259</v>
@@ -8246,13 +8246,13 @@
         <v>0.53</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>567</v>
@@ -8290,13 +8290,13 @@
         <v>0.66</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>572</v>
@@ -8334,13 +8334,13 @@
         <v>0.65</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>577</v>
@@ -8378,16 +8378,16 @@
         <v>0.63</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I118" s="13" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>582</v>
@@ -8422,16 +8422,16 @@
         <v>0.63</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I119" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>586</v>
@@ -8466,13 +8466,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I120" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>590</v>
@@ -8510,13 +8510,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I121" s="13" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>595</v>
@@ -8554,16 +8554,16 @@
         <v>0.5</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I122" s="13" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>600</v>
@@ -8598,16 +8598,16 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I123" s="13" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>604</v>
@@ -8642,13 +8642,13 @@
         <v>0.63</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I124" s="13" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>608</v>
@@ -8686,13 +8686,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>613</v>
@@ -8730,13 +8730,13 @@
         <v>0.63</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I126" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>618</v>
@@ -8774,16 +8774,16 @@
         <v>0.64</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I127" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>623</v>
@@ -8818,13 +8818,13 @@
         <v>0.51</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I128" s="13" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>627</v>
@@ -8862,13 +8862,13 @@
         <v>0.64</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I129" s="13" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>632</v>
@@ -8906,13 +8906,13 @@
         <v>0.61</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I130" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>637</v>
@@ -8950,13 +8950,13 @@
         <v>0.64</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I131" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>642</v>
@@ -8994,10 +8994,10 @@
         <v>0.47</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I132" s="13" t="s">
         <v>204</v>
@@ -9038,16 +9038,16 @@
         <v>0.48</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I133" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>652</v>
@@ -9082,13 +9082,13 @@
         <v>0.51</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I134" s="13" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>655</v>
@@ -9126,13 +9126,13 @@
         <v>0.54</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I135" s="13" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>659</v>
@@ -9170,13 +9170,13 @@
         <v>0.54</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>664</v>
@@ -9214,13 +9214,13 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I137" s="13" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>669</v>
@@ -9258,13 +9258,13 @@
         <v>0.51</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I138" s="13" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>674</v>
@@ -9302,13 +9302,13 @@
         <v>0.51</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H139" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="I139" s="13" t="s">
         <v>893</v>
-      </c>
-      <c r="I139" s="13" t="s">
-        <v>894</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>678</v>
@@ -9346,13 +9346,13 @@
         <v>0.49</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I140" s="13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>683</v>
@@ -9390,13 +9390,13 @@
         <v>0.54</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I141" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>688</v>
@@ -9434,13 +9434,13 @@
         <v>0.54</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I142" s="13" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>693</v>
@@ -9478,13 +9478,13 @@
         <v>0.59</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I143" s="13" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>698</v>
@@ -9522,13 +9522,13 @@
         <v>0.42</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I144" s="13" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>703</v>
@@ -9566,13 +9566,13 @@
         <v>0.53</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I145" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>708</v>
@@ -9609,10 +9609,10 @@
         <v>543</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I146" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>713</v>
@@ -9649,7 +9649,7 @@
         <v>543</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I147" s="13" t="s">
         <v>201</v>
@@ -9689,10 +9689,10 @@
         <v>543</v>
       </c>
       <c r="H148" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="I148" s="13" t="s">
         <v>893</v>
-      </c>
-      <c r="I148" s="13" t="s">
-        <v>894</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>722</v>
@@ -9729,10 +9729,10 @@
         <v>543</v>
       </c>
       <c r="H149" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I149" s="13" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>727</v>
@@ -9769,10 +9769,10 @@
         <v>543</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I150" s="13" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>732</v>
@@ -9809,10 +9809,10 @@
         <v>543</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I151" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>737</v>
@@ -9846,13 +9846,13 @@
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H152" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I152" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>742</v>
@@ -9886,13 +9886,13 @@
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I153" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>747</v>
@@ -9926,13 +9926,13 @@
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I154" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>752</v>
@@ -9966,13 +9966,13 @@
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I155" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>757</v>
@@ -10006,13 +10006,13 @@
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H156" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="I156" s="13" t="s">
         <v>893</v>
-      </c>
-      <c r="I156" s="13" t="s">
-        <v>894</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>762</v>
@@ -10046,13 +10046,13 @@
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I157" s="13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J157" s="2" t="s">
         <v>767</v>
@@ -10086,13 +10086,13 @@
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I158" s="13" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>771</v>
@@ -10126,13 +10126,13 @@
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I159" s="13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>776</v>
@@ -10166,13 +10166,13 @@
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I160" s="13" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>781</v>
@@ -10206,16 +10206,16 @@
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H161" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I161" s="13" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>783</v>
@@ -10246,13 +10246,13 @@
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H162" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I162" s="13" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>787</v>
@@ -10286,13 +10286,13 @@
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H163" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I163" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>792</v>
@@ -10326,13 +10326,13 @@
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H164" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I164" s="13" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>795</v>
@@ -10366,13 +10366,13 @@
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H165" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I165" s="13" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>800</v>
@@ -10406,16 +10406,16 @@
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H166" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I166" s="13" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>804</v>
@@ -10446,13 +10446,13 @@
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I167" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>808</v>
@@ -10486,13 +10486,13 @@
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
       <c r="G168" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I168" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>813</v>
@@ -10526,13 +10526,13 @@
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
       <c r="G169" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H169" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I169" s="13" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>816</v>
@@ -10566,13 +10566,13 @@
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H170" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I170" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>820</v>
@@ -10606,13 +10606,13 @@
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H171" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I171" s="13" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J171" s="2" t="s">
         <v>825</v>
@@ -10646,28 +10646,28 @@
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H172" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I172" s="13" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J172" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="K172" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="K172" s="2" t="s">
+      <c r="L172" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="L172" s="2" t="s">
+      <c r="M172" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="M172" s="2" t="s">
+      <c r="N172" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="N172" s="2" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
@@ -10686,28 +10686,28 @@
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H173" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I173" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J173" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="K173" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="K173" s="2" t="s">
+      <c r="L173" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="L173" s="2" t="s">
+      <c r="M173" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="M173" s="2" t="s">
+      <c r="N173" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="N173" s="2" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -10726,28 +10726,28 @@
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H174" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I174" s="13" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J174" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="K174" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="K174" s="2" t="s">
+      <c r="L174" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="L174" s="2" t="s">
+      <c r="M174" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="M174" s="2" t="s">
+      <c r="N174" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="N174" s="2" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
@@ -10766,28 +10766,28 @@
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H175" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J175" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="K175" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="K175" s="2" t="s">
+      <c r="L175" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="L175" s="2" t="s">
+      <c r="M175" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="M175" s="2" t="s">
+      <c r="N175" s="2" t="s">
         <v>848</v>
-      </c>
-      <c r="N175" s="2" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -10806,28 +10806,28 @@
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H176" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I176" s="13" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J176" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="K176" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="K176" s="2" t="s">
+      <c r="L176" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="L176" s="2" t="s">
+      <c r="M176" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="M176" s="2" t="s">
+      <c r="N176" s="2" t="s">
         <v>853</v>
-      </c>
-      <c r="N176" s="2" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="177" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -10846,28 +10846,28 @@
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H177" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I177" s="13" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J177" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="K177" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="K177" s="2" t="s">
+      <c r="L177" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="L177" s="2" t="s">
+      <c r="M177" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="M177" s="2" t="s">
+      <c r="N177" s="2" t="s">
         <v>858</v>
-      </c>
-      <c r="N177" s="2" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
@@ -10886,28 +10886,28 @@
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H178" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I178" s="13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J178" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="K178" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="K178" s="2" t="s">
+      <c r="L178" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="L178" s="2" t="s">
+      <c r="M178" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="M178" s="2" t="s">
+      <c r="N178" s="2" t="s">
         <v>863</v>
-      </c>
-      <c r="N178" s="2" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
@@ -10926,28 +10926,28 @@
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H179" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I179" s="13" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J179" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="K179" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="K179" s="2" t="s">
+      <c r="L179" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="L179" s="2" t="s">
+      <c r="M179" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="M179" s="2" t="s">
+      <c r="N179" s="2" t="s">
         <v>868</v>
-      </c>
-      <c r="N179" s="2" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -10966,28 +10966,28 @@
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H180" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="I180" s="13" t="s">
         <v>893</v>
       </c>
-      <c r="I180" s="13" t="s">
-        <v>894</v>
-      </c>
       <c r="J180" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="K180" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="K180" s="2" t="s">
+      <c r="L180" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="L180" s="2" t="s">
+      <c r="M180" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="M180" s="2" t="s">
+      <c r="N180" s="2" t="s">
         <v>873</v>
-      </c>
-      <c r="N180" s="2" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
@@ -11006,28 +11006,28 @@
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H181" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="I181" s="13" t="s">
         <v>881</v>
       </c>
-      <c r="I181" s="13" t="s">
-        <v>882</v>
-      </c>
       <c r="J181" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="K181" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="K181" s="2" t="s">
+      <c r="L181" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="L181" s="2" t="s">
+      <c r="M181" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="M181" s="2" t="s">
+      <c r="N181" s="2" t="s">
         <v>878</v>
-      </c>
-      <c r="N181" s="2" t="s">
-        <v>879</v>
       </c>
     </row>
   </sheetData>

--- a/reading/ReadingItems.xlsx
+++ b/reading/ReadingItems.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17668"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/Projects/DAACS-Github/DAACS-Website/assessments/reading/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mverdi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19350" windowHeight="10140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ReadingItems" sheetId="1" r:id="rId1"/>
@@ -325,9 +325,6 @@
     <t>personify the Sun</t>
   </si>
   <si>
-    <t>decribe the setting</t>
-  </si>
-  <si>
     <t>characterize the narrator</t>
   </si>
   <si>
@@ -358,9 +355,6 @@
     <t>popularity</t>
   </si>
   <si>
-    <t>dependeability</t>
-  </si>
-  <si>
     <t>intensity</t>
   </si>
   <si>
@@ -457,9 +451,6 @@
     <t>fearful</t>
   </si>
   <si>
-    <t>The narrator's description of her childgood room (lines 16 through 19) was foreshadowed by which phrase?</t>
-  </si>
-  <si>
     <t>"The air is pulpy" (line 1)</t>
   </si>
   <si>
@@ -472,9 +463,6 @@
     <t>"I feel loose-footed" (line 13)</t>
   </si>
   <si>
-    <t>By urding the narrator to "weed things out" (line 20), her mother is expressing her</t>
-  </si>
-  <si>
     <t>thoughts about the future</t>
   </si>
   <si>
@@ -496,9 +484,6 @@
     <t>insulting</t>
   </si>
   <si>
-    <t>educqtional</t>
-  </si>
-  <si>
     <t>revealing</t>
   </si>
   <si>
@@ -638,9 +623,6 @@
   </si>
   <si>
     <t>craves attention</t>
-  </si>
-  <si>
-    <t>The wilderness setting in the third paragrpah is developed primarily through the use of</t>
   </si>
   <si>
     <t>imagery</t>
@@ -2407,9 +2389,6 @@
     <t>mostly cloudy during daytime</t>
   </si>
   <si>
-    <t>According to the passage, Call is distrubed by the fact that he is viewed as a</t>
-  </si>
-  <si>
     <t>snob</t>
   </si>
   <si>
@@ -2419,18 +2398,12 @@
     <t>leader</t>
   </si>
   <si>
-    <t>theif</t>
-  </si>
-  <si>
     <t>This passage is developed primarily through the use of</t>
   </si>
   <si>
     <t>foreshadowing</t>
   </si>
   <si>
-    <t>hyperbol</t>
-  </si>
-  <si>
     <t>Lines 8 through 15 indicate that medieval  mapmakers believed that an explorer traveling east should ultimately reach the</t>
   </si>
   <si>
@@ -2563,9 +2536,6 @@
     <t>destroyed her life</t>
   </si>
   <si>
-    <t>The statement "Then, as voices do, it would begin to shirvel" (lines 14 and 15) introduces a</t>
-  </si>
-  <si>
     <t>source of inspiration</t>
   </si>
   <si>
@@ -2608,12 +2578,6 @@
     <t>introduce his closest friends</t>
   </si>
   <si>
-    <t>Which phrase best reflects Glen Curtiss' decision to mae a travel trailer?</t>
-  </si>
-  <si>
-    <t>"his career as a record-setting motorcylcist" (lines 1 and 2)</t>
-  </si>
-  <si>
     <t>"The Curtis Jenny, a sturdy, affordable trainer" (lines 8 and 9)</t>
   </si>
   <si>
@@ -2662,9 +2626,6 @@
     <t>It was hard to find a dealership</t>
   </si>
   <si>
-    <t>There were few liscensed drivers</t>
-  </si>
-  <si>
     <t>There were few qualified mechanics</t>
   </si>
   <si>
@@ -2767,9 +2728,6 @@
     <t>set the tone</t>
   </si>
   <si>
-    <t>transtional words and phrases</t>
-  </si>
-  <si>
     <t>punctuation</t>
   </si>
   <si>
@@ -2812,9 +2770,6 @@
     <t>use of literary device: personification</t>
   </si>
   <si>
-    <t>identify explicity point from supporting detail</t>
-  </si>
-  <si>
     <t>recall main idea of a paragraph</t>
   </si>
   <si>
@@ -2899,9 +2854,6 @@
     <t>vocabulary: interpret figure of speech</t>
   </si>
   <si>
-    <t>language choie/style and meaning</t>
-  </si>
-  <si>
     <t>answer needs to be inferred from text</t>
   </si>
   <si>
@@ -2996,12 +2948,60 @@
   </si>
   <si>
     <t>The sentence "We went everywhere together" (line 8) is ironic because the narrator views</t>
+  </si>
+  <si>
+    <t>transitional words and phrases</t>
+  </si>
+  <si>
+    <t>The statement "Then, as voices do, it would begin to shrivel" (lines 14 and 15) introduces a</t>
+  </si>
+  <si>
+    <t>Which phrase best reflects Glen Curtiss' decision to make a travel trailer?</t>
+  </si>
+  <si>
+    <t>"his career as a record-setting motorcyclist" (lines 1 and 2)</t>
+  </si>
+  <si>
+    <t>There were few licensed drivers</t>
+  </si>
+  <si>
+    <t>describe the setting</t>
+  </si>
+  <si>
+    <t>dependability</t>
+  </si>
+  <si>
+    <t>The narrator's description of her childhood room (lines 16 through 19) was foreshadowed by which phrase?</t>
+  </si>
+  <si>
+    <t>By urging the narrator to "weed things out" (line 20), her mother is expressing her</t>
+  </si>
+  <si>
+    <t>educational</t>
+  </si>
+  <si>
+    <t>The wilderness setting in the third paragraph is developed primarily through the use of</t>
+  </si>
+  <si>
+    <t>identify explicitly point from supporting detail</t>
+  </si>
+  <si>
+    <t>language choice/style and meaning</t>
+  </si>
+  <si>
+    <t>According to the passage, Call is disturbed by the fact that he is viewed as a</t>
+  </si>
+  <si>
+    <t>thief</t>
+  </si>
+  <si>
+    <t>hyperbole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3110,6 +3110,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3381,28 +3384,28 @@
   <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="J161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="N171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J172" sqref="J172"/>
+      <selection pane="bottomRight" activeCell="N177" sqref="N177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="9"/>
-    <col min="2" max="2" width="10.83203125" style="4"/>
-    <col min="3" max="6" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="10.875" style="9"/>
+    <col min="2" max="2" width="10.875" style="4"/>
+    <col min="3" max="6" width="10.875" style="9"/>
     <col min="7" max="7" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.875" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="67.5" customWidth="1"/>
-    <col min="11" max="11" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="40" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="36" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3416,10 +3419,10 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>0</v>
@@ -3428,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
@@ -3446,7 +3449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2011</v>
       </c>
@@ -3465,13 +3468,13 @@
         <v>67</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>961</v>
+        <v>945</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>68</v>
@@ -3486,7 +3489,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2011</v>
       </c>
@@ -3505,10 +3508,10 @@
         <v>67</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>73</v>
@@ -3526,7 +3529,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2011</v>
       </c>
@@ -3545,10 +3548,10 @@
         <v>67</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>78</v>
@@ -3566,7 +3569,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2011</v>
       </c>
@@ -3585,10 +3588,10 @@
         <v>67</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>83</v>
@@ -3606,7 +3609,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2011</v>
       </c>
@@ -3625,10 +3628,10 @@
         <v>67</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>88</v>
@@ -3646,7 +3649,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2011</v>
       </c>
@@ -3665,10 +3668,10 @@
         <v>67</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>93</v>
@@ -3677,16 +3680,16 @@
         <v>94</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2011</v>
       </c>
@@ -3702,31 +3705,31 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>884</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>890</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2011</v>
       </c>
@@ -3742,31 +3745,31 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2011</v>
       </c>
@@ -3782,31 +3785,31 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2011</v>
       </c>
@@ -3822,31 +3825,31 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2011</v>
       </c>
@@ -3862,31 +3865,31 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2011</v>
       </c>
@@ -3902,36 +3905,36 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2011</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>25</v>
@@ -3946,36 +3949,36 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>896</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="L14" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2011</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>30</v>
@@ -3990,36 +3993,36 @@
         <v>0.59</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2011</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>14</v>
@@ -4034,36 +4037,36 @@
         <v>0.46</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2011</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>25</v>
@@ -4078,36 +4081,36 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2011</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>19</v>
@@ -4122,36 +4125,36 @@
         <v>0.5</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>152</v>
+        <v>977</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2011</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>25</v>
@@ -4166,36 +4169,36 @@
         <v>0.49</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2011</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>19</v>
@@ -4210,36 +4213,36 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>892</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>899</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2011</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>14</v>
@@ -4254,36 +4257,36 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2011</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>19</v>
@@ -4298,36 +4301,36 @@
         <v>0.54</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2011</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>30</v>
@@ -4342,36 +4345,36 @@
         <v>0.53</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2011</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>25</v>
@@ -4386,36 +4389,36 @@
         <v>0.6</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>2011</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>30</v>
@@ -4430,31 +4433,31 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2011</v>
       </c>
@@ -4474,31 +4477,31 @@
         <v>0.62</v>
       </c>
       <c r="G26" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>890</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>884</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>903</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>2011</v>
       </c>
@@ -4518,31 +4521,31 @@
         <v>0.52</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>2011</v>
       </c>
@@ -4562,31 +4565,31 @@
         <v>0.51</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>200</v>
+        <v>978</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>2011</v>
       </c>
@@ -4606,31 +4609,31 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>2011</v>
       </c>
@@ -4650,31 +4653,31 @@
         <v>0.61</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>2011</v>
       </c>
@@ -4694,31 +4697,31 @@
         <v>0.53</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>2011</v>
       </c>
@@ -4738,31 +4741,31 @@
         <v>0.48</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>2011</v>
       </c>
@@ -4782,31 +4785,31 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G33" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>872</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H33" s="12" t="s">
-        <v>884</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>885</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="K33" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>2011</v>
       </c>
@@ -4826,31 +4829,31 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>907</v>
+        <v>968</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>2011</v>
       </c>
@@ -4870,31 +4873,31 @@
         <v>0.51</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>2011</v>
       </c>
@@ -4914,31 +4917,31 @@
         <v>0.54</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>2011</v>
       </c>
@@ -4958,31 +4961,31 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2012</v>
       </c>
@@ -5002,31 +5005,31 @@
         <v>0.53</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2012</v>
       </c>
@@ -5046,31 +5049,31 @@
         <v>0.46</v>
       </c>
       <c r="G39" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="H39" s="14" t="s">
-        <v>884</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>910</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="K39" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2012</v>
       </c>
@@ -5090,31 +5093,31 @@
         <v>0.51</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>2012</v>
       </c>
@@ -5134,31 +5137,31 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>2012</v>
       </c>
@@ -5178,31 +5181,31 @@
         <v>0.48</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>2012</v>
       </c>
@@ -5222,31 +5225,31 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>2012</v>
       </c>
@@ -5266,31 +5269,31 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>2012</v>
       </c>
@@ -5310,31 +5313,31 @@
         <v>0.53</v>
       </c>
       <c r="G45" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H45" s="12" t="s">
-        <v>884</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>912</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="K45" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>2012</v>
       </c>
@@ -5354,31 +5357,31 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>2012</v>
       </c>
@@ -5398,31 +5401,31 @@
         <v>0.62</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>2012</v>
       </c>
@@ -5442,31 +5445,31 @@
         <v>0.54</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>2012</v>
       </c>
@@ -5486,36 +5489,36 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>2012</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>30</v>
@@ -5530,36 +5533,36 @@
         <v>0.5</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>2012</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>19</v>
@@ -5574,36 +5577,36 @@
         <v>0.51</v>
       </c>
       <c r="G51" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="H51" s="12" t="s">
-        <v>884</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="K51" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>2012</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>14</v>
@@ -5618,36 +5621,36 @@
         <v>0.6</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>2012</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>25</v>
@@ -5662,36 +5665,36 @@
         <v>0.44</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>2012</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>30</v>
@@ -5706,36 +5709,36 @@
         <v>0.62</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>2012</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>14</v>
@@ -5750,36 +5753,36 @@
         <v>0.46</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>2012</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>25</v>
@@ -5794,36 +5797,36 @@
         <v>0.64</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>2012</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>19</v>
@@ -5838,36 +5841,36 @@
         <v>0.54</v>
       </c>
       <c r="G57" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="H57" s="12" t="s">
-        <v>884</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>887</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="K57" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>2012</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>30</v>
@@ -5882,36 +5885,36 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>2012</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>14</v>
@@ -5926,36 +5929,36 @@
         <v>0.54</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>2012</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>25</v>
@@ -5970,36 +5973,36 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>2012</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>30</v>
@@ -6014,22 +6017,22 @@
         <v>0.5</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>64</v>
@@ -6038,7 +6041,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>2012</v>
       </c>
@@ -6058,31 +6061,31 @@
         <v>0.5</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>2012</v>
       </c>
@@ -6102,31 +6105,31 @@
         <v>0.35</v>
       </c>
       <c r="G63" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>901</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="H63" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>915</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="L63" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>2012</v>
       </c>
@@ -6146,31 +6149,31 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>2012</v>
       </c>
@@ -6190,31 +6193,31 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>2012</v>
       </c>
@@ -6234,31 +6237,31 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>2012</v>
       </c>
@@ -6278,31 +6281,31 @@
         <v>0.54</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>91</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>2012</v>
       </c>
@@ -6322,31 +6325,31 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>2012</v>
       </c>
@@ -6366,31 +6369,31 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G69" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="J69" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="H69" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="I69" s="13" t="s">
-        <v>896</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>402</v>
-      </c>
       <c r="K69" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>2012</v>
       </c>
@@ -6410,31 +6413,31 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>2012</v>
       </c>
@@ -6454,31 +6457,31 @@
         <v>0.6</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>2012</v>
       </c>
@@ -6498,31 +6501,31 @@
         <v>0.61</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>2012</v>
       </c>
@@ -6542,31 +6545,31 @@
         <v>0.6</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>64</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>2013</v>
       </c>
@@ -6582,31 +6585,31 @@
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>2013</v>
       </c>
@@ -6622,31 +6625,31 @@
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="J75" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="H75" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="I75" s="13" t="s">
-        <v>896</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="K75" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>2013</v>
       </c>
@@ -6662,31 +6665,31 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>2013</v>
       </c>
@@ -6702,31 +6705,31 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>2013</v>
       </c>
@@ -6742,31 +6745,31 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>2013</v>
       </c>
@@ -6782,31 +6785,31 @@
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>2013</v>
       </c>
@@ -6822,31 +6825,31 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I80" s="13" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>2013</v>
       </c>
@@ -6862,31 +6865,31 @@
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="H81" s="12" t="s">
-        <v>884</v>
-      </c>
-      <c r="I81" s="13" t="s">
-        <v>921</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="L81" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>2013</v>
       </c>
@@ -6902,31 +6905,31 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>922</v>
+        <v>979</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>2013</v>
       </c>
@@ -6942,31 +6945,31 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>2013</v>
       </c>
@@ -6982,31 +6985,31 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>2013</v>
       </c>
@@ -7022,36 +7025,36 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>2013</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>14</v>
@@ -7062,36 +7065,36 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>2013</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>25</v>
@@ -7102,36 +7105,36 @@
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="L87" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="H87" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="I87" s="13" t="s">
-        <v>925</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="M87" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>2013</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>30</v>
@@ -7142,36 +7145,36 @@
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>2013</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>25</v>
@@ -7182,36 +7185,36 @@
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>2013</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>30</v>
@@ -7222,36 +7225,36 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>2013</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>14</v>
@@ -7262,36 +7265,36 @@
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>2013</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>30</v>
@@ -7302,36 +7305,36 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>2013</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>25</v>
@@ -7342,36 +7345,36 @@
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="J93" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="H93" s="12" t="s">
-        <v>892</v>
-      </c>
-      <c r="I93" s="13" t="s">
-        <v>899</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>512</v>
-      </c>
       <c r="K93" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>2013</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>19</v>
@@ -7382,36 +7385,36 @@
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>2013</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>25</v>
@@ -7422,36 +7425,36 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>2013</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>14</v>
@@ -7462,36 +7465,36 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>74</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>2013</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>19</v>
@@ -7502,31 +7505,31 @@
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>2013</v>
       </c>
@@ -7545,10 +7548,10 @@
         <v>7</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>8</v>
@@ -7566,7 +7569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>2013</v>
       </c>
@@ -7585,13 +7588,13 @@
         <v>7</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>15</v>
@@ -7606,7 +7609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>2013</v>
       </c>
@@ -7625,10 +7628,10 @@
         <v>7</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>20</v>
@@ -7646,7 +7649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>2013</v>
       </c>
@@ -7665,13 +7668,13 @@
         <v>7</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>26</v>
@@ -7686,7 +7689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>2013</v>
       </c>
@@ -7705,10 +7708,10 @@
         <v>7</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>31</v>
@@ -7726,7 +7729,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>2013</v>
       </c>
@@ -7745,10 +7748,10 @@
         <v>7</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>36</v>
@@ -7766,7 +7769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>2013</v>
       </c>
@@ -7785,10 +7788,10 @@
         <v>41</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I104" s="13" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>42</v>
@@ -7806,7 +7809,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>2013</v>
       </c>
@@ -7825,10 +7828,10 @@
         <v>41</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>47</v>
@@ -7846,7 +7849,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>2013</v>
       </c>
@@ -7865,13 +7868,13 @@
         <v>41</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>52</v>
@@ -7886,7 +7889,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>2013</v>
       </c>
@@ -7905,10 +7908,10 @@
         <v>41</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>56</v>
@@ -7926,7 +7929,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>2013</v>
       </c>
@@ -7945,28 +7948,28 @@
         <v>41</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>61</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>2013</v>
       </c>
@@ -7985,10 +7988,10 @@
         <v>41</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>62</v>
@@ -8006,7 +8009,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>2014</v>
       </c>
@@ -8026,31 +8029,31 @@
         <v>0.36</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>2014</v>
       </c>
@@ -8070,31 +8073,31 @@
         <v>0.51</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>2014</v>
       </c>
@@ -8114,31 +8117,31 @@
         <v>0.64</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I112" s="13" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>2014</v>
       </c>
@@ -8158,31 +8161,31 @@
         <v>0.44</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>907</v>
+        <v>968</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>2014</v>
       </c>
@@ -8202,31 +8205,31 @@
         <v>0.52</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>959</v>
+        <v>943</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>2014</v>
       </c>
@@ -8246,31 +8249,31 @@
         <v>0.53</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>2014</v>
       </c>
@@ -8290,31 +8293,31 @@
         <v>0.66</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>2014</v>
       </c>
@@ -8334,31 +8337,31 @@
         <v>0.65</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>2014</v>
       </c>
@@ -8378,31 +8381,31 @@
         <v>0.63</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I118" s="13" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>975</v>
+        <v>959</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>2014</v>
       </c>
@@ -8422,31 +8425,31 @@
         <v>0.63</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I119" s="13" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>958</v>
+        <v>942</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>2014</v>
       </c>
@@ -8466,31 +8469,31 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I120" s="13" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>2014</v>
       </c>
@@ -8510,36 +8513,36 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I121" s="13" t="s">
-        <v>937</v>
+        <v>922</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>2014</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>30</v>
@@ -8554,36 +8557,36 @@
         <v>0.5</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I122" s="13" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>2014</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>14</v>
@@ -8598,36 +8601,36 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I123" s="13" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>2014</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>25</v>
@@ -8642,36 +8645,36 @@
         <v>0.63</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I124" s="13" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>2014</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>19</v>
@@ -8686,36 +8689,36 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>2014</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>30</v>
@@ -8730,36 +8733,36 @@
         <v>0.63</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I126" s="13" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>2014</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>19</v>
@@ -8774,36 +8777,36 @@
         <v>0.64</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I127" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>978</v>
+        <v>962</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>2014</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>25</v>
@@ -8818,36 +8821,36 @@
         <v>0.51</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I128" s="13" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>2014</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>14</v>
@@ -8862,36 +8865,36 @@
         <v>0.64</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I129" s="13" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>2014</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>14</v>
@@ -8906,36 +8909,36 @@
         <v>0.61</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I130" s="13" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>2014</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>19</v>
@@ -8950,36 +8953,36 @@
         <v>0.64</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I131" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>2014</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>30</v>
@@ -8994,36 +8997,36 @@
         <v>0.47</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I132" s="13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>2014</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>25</v>
@@ -9038,31 +9041,31 @@
         <v>0.48</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I133" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>2014</v>
       </c>
@@ -9082,31 +9085,31 @@
         <v>0.51</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I134" s="13" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>2014</v>
       </c>
@@ -9126,31 +9129,31 @@
         <v>0.54</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I135" s="13" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>2014</v>
       </c>
@@ -9170,31 +9173,31 @@
         <v>0.54</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>2014</v>
       </c>
@@ -9214,31 +9217,31 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I137" s="13" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>2014</v>
       </c>
@@ -9258,31 +9261,31 @@
         <v>0.51</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I138" s="13" t="s">
-        <v>947</v>
+        <v>932</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>2014</v>
       </c>
@@ -9302,31 +9305,31 @@
         <v>0.51</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I139" s="13" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>2014</v>
       </c>
@@ -9346,31 +9349,31 @@
         <v>0.49</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I140" s="13" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>2014</v>
       </c>
@@ -9390,31 +9393,31 @@
         <v>0.54</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I141" s="13" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>2014</v>
       </c>
@@ -9434,31 +9437,31 @@
         <v>0.54</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I142" s="13" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>2014</v>
       </c>
@@ -9478,31 +9481,31 @@
         <v>0.59</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I143" s="13" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>2014</v>
       </c>
@@ -9522,31 +9525,31 @@
         <v>0.42</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I144" s="13" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>2014</v>
       </c>
@@ -9566,31 +9569,31 @@
         <v>0.53</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I145" s="13" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>2015</v>
       </c>
@@ -9606,31 +9609,31 @@
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="I146" s="13" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>2015</v>
       </c>
@@ -9646,31 +9649,31 @@
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
       <c r="G147" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I147" s="13" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>2015</v>
       </c>
@@ -9686,31 +9689,31 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H148" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I148" s="13" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>2015</v>
       </c>
@@ -9726,31 +9729,31 @@
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H149" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I149" s="13" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>2015</v>
       </c>
@@ -9766,31 +9769,31 @@
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I150" s="13" t="s">
-        <v>951</v>
+        <v>980</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>2015</v>
       </c>
@@ -9806,31 +9809,31 @@
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I151" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>2015</v>
       </c>
@@ -9846,31 +9849,31 @@
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="7" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="H152" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I152" s="13" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>2015</v>
       </c>
@@ -9886,31 +9889,31 @@
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="7" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I153" s="13" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>2015</v>
       </c>
@@ -9926,31 +9929,31 @@
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
       <c r="G154" s="7" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I154" s="13" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>2015</v>
       </c>
@@ -9966,31 +9969,31 @@
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="7" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I155" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>2015</v>
       </c>
@@ -10006,31 +10009,31 @@
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="7" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="H156" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I156" s="13" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>2015</v>
       </c>
@@ -10046,36 +10049,36 @@
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="7" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="I157" s="13" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>2015</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>19</v>
@@ -10086,36 +10089,36 @@
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="7" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I158" s="13" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>2015</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>30</v>
@@ -10126,36 +10129,36 @@
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="7" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I159" s="13" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>2015</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>25</v>
@@ -10166,36 +10169,36 @@
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
       <c r="G160" s="7" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I160" s="13" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>2015</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>14</v>
@@ -10206,36 +10209,36 @@
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="7" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="H161" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I161" s="13" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>2015</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>30</v>
@@ -10246,36 +10249,36 @@
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="7" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="H162" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I162" s="13" t="s">
-        <v>953</v>
+        <v>937</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>787</v>
+        <v>981</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>2015</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>14</v>
@@ -10286,36 +10289,36 @@
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="8" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="H163" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I163" s="13" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>2015</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>30</v>
@@ -10326,36 +10329,36 @@
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="8" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="H164" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I164" s="13" t="s">
-        <v>954</v>
+        <v>938</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>2015</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>14</v>
@@ -10366,36 +10369,36 @@
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="G165" s="8" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="H165" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I165" s="13" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>2015</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>19</v>
@@ -10406,36 +10409,36 @@
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="8" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="H166" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I166" s="13" t="s">
-        <v>956</v>
+        <v>940</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>2015</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>30</v>
@@ -10446,36 +10449,36 @@
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="8" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I167" s="13" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>2015</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>14</v>
@@ -10486,36 +10489,36 @@
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
       <c r="G168" s="8" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I168" s="13" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>2015</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>25</v>
@@ -10526,31 +10529,31 @@
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
       <c r="G169" s="8" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="H169" s="12" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="I169" s="13" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>2015</v>
       </c>
@@ -10566,31 +10569,31 @@
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
       <c r="G170" s="8" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="H170" s="12" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I170" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>2015</v>
       </c>
@@ -10606,31 +10609,31 @@
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="8" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="H171" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I171" s="13" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>2015</v>
       </c>
@@ -10646,31 +10649,31 @@
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="8" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="H172" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I172" s="13" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>2015</v>
       </c>
@@ -10686,31 +10689,31 @@
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="H173" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I173" s="13" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>2015</v>
       </c>
@@ -10726,31 +10729,31 @@
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="H174" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I174" s="13" t="s">
-        <v>907</v>
+        <v>968</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>839</v>
+        <v>969</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>2015</v>
       </c>
@@ -10766,31 +10769,31 @@
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="H175" s="12" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>2015</v>
       </c>
@@ -10806,31 +10809,31 @@
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="8" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="H176" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I176" s="13" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>2015</v>
       </c>
@@ -10846,31 +10849,31 @@
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="H177" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="I177" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="K177" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="H177" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="I177" s="13" t="s">
-        <v>934</v>
-      </c>
-      <c r="J177" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="K177" s="2" t="s">
-        <v>855</v>
-      </c>
       <c r="L177" s="2" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>2015</v>
       </c>
@@ -10886,31 +10889,31 @@
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="8" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="H178" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I178" s="13" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>2015</v>
       </c>
@@ -10926,31 +10929,31 @@
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="8" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="H179" s="12" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I179" s="13" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="M179" s="2" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>2015</v>
       </c>
@@ -10966,31 +10969,31 @@
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="8" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="H180" s="12" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="I180" s="13" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="L180" s="2" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>872</v>
+        <v>972</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>2015</v>
       </c>
@@ -11006,28 +11009,28 @@
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="8" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="H181" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="I181" s="13" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="L181" s="2" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
